--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df8c00b68312d67f/University 2020 S2/INFO301/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{3F068C23-0B70-40A0-95CE-FED1E1CA77CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD414F27-B940-416F-8FB7-C6EA18C3EB39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD9AB3-6547-6A43-B0C9-DFA29140F48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,17 +421,17 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -449,7 +449,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -469,7 +469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +499,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +519,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD9AB3-6547-6A43-B0C9-DFA29140F48D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDD946-786A-BE40-A659-F92B6E369D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Week 1</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Idea selection, planning and overview of functionality, target audience and use case.</t>
+  </si>
+  <si>
+    <t>Collaborated on user studies</t>
   </si>
 </sst>
 </file>
@@ -420,8 +423,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -494,7 +497,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df8c00b68312d67f/University 2020 S2/INFO301/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDD946-786A-BE40-A659-F92B6E369D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{486100A1-C139-4CF8-9454-35E6B6BB17A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>Idea selection, planning and overview of functionality, target audience and use case.</t>
   </si>
   <si>
-    <t>Collaborated on user studies</t>
+    <t>Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
   </si>
 </sst>
 </file>
@@ -423,18 +423,18 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -452,7 +452,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,19 +492,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -514,7 +514,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -534,7 +534,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +544,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -554,7 +554,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,7 +594,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df8c00b68312d67f/University 2020 S2/INFO301/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{486100A1-C139-4CF8-9454-35E6B6BB17A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57B641-6B23-3549-806E-D6431A065733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="14280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Week 1</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
+  </si>
+  <si>
+    <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
   </si>
 </sst>
 </file>
@@ -427,14 +430,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -452,7 +455,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -492,19 +495,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -514,7 +519,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -524,7 +529,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -534,7 +539,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +549,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -554,7 +559,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -564,7 +569,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -574,7 +579,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -584,7 +589,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -594,7 +599,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\IN301\Agora Project\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57B641-6B23-3549-806E-D6431A065733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF088C3-1F86-435C-9611-AB4FACDFF172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="14280" windowHeight="8960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Week 1</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
+  </si>
+  <si>
+    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga.</t>
   </si>
 </sst>
 </file>
@@ -426,18 +429,18 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -455,7 +458,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,7 +478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -495,7 +498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,9 +510,11 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -519,7 +524,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,7 +534,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -539,7 +544,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -549,7 +554,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -559,7 +564,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -569,7 +574,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -579,7 +584,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,7 +594,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -599,7 +604,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\IN301\Agora Project\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF088C3-1F86-435C-9611-AB4FACDFF172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D46A49-E852-4B09-A617-00603BAA09DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Week 1</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga.</t>
+  </si>
+  <si>
+    <t>Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
   </si>
 </sst>
 </file>
@@ -429,18 +432,18 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -458,7 +461,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -498,7 +501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -509,12 +512,14 @@
         <v>22</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -524,7 +529,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -534,7 +539,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -544,7 +549,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -554,7 +559,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -564,7 +569,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -574,7 +579,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -584,7 +589,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -594,7 +599,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -604,7 +609,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\IN301\Agora Project\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D46A49-E852-4B09-A617-00603BAA09DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1111DA2C-C17C-4176-BF0B-AB133CE4E2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
   </si>
   <si>
-    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga.</t>
-  </si>
-  <si>
     <t>Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
+  </si>
+  <si>
+    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
   </si>
 </sst>
 </file>
@@ -433,17 +433,17 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -501,7 +501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -513,13 +513,13 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -529,7 +529,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -559,7 +559,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -569,7 +569,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -599,7 +599,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57B7A31-1734-47C2-BA02-E2D70D79C3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,118 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t xml:space="preserve">Hugo Baird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric Stephani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leon Hoogenraad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vainui Moresi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husam Alghamdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idea selection, planning and overview of functionality, target audience and use case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+  <si>
+    <t>Hugo Baird</t>
+  </si>
+  <si>
+    <t>Cedric Stephani</t>
+  </si>
+  <si>
+    <t>Leon Hoogenraad</t>
+  </si>
+  <si>
+    <t>Vainui Moresi</t>
+  </si>
+  <si>
+    <t>Husam Alghamdi</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Idea selection, planning and overview of functionality, target audience and use case.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Feasibility study</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
+  </si>
+  <si>
+    <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
+  </si>
+  <si>
+    <t>Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
+  </si>
+  <si>
+    <t>Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
+  </si>
+  <si>
+    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -140,7 +129,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -153,7 +141,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -161,81 +149,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -253,7 +508,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -273,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -293,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -313,17 +568,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -333,7 +590,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -343,7 +600,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -353,7 +610,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -363,7 +620,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -373,7 +630,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -383,7 +640,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -393,7 +650,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -403,7 +660,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -414,12 +671,7 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AEB137-8528-409C-836B-82BC94B49567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,60 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Hugo Baird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric Stephani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leon Hoogenraad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vainui Moresi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husam Alghamdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idea selection, planning and overview of functionality, target audience and use case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Hugo Baird</t>
+  </si>
+  <si>
+    <t>Cedric Stephani</t>
+  </si>
+  <si>
+    <t>Leon Hoogenraad</t>
+  </si>
+  <si>
+    <t>Vainui Moresi</t>
+  </si>
+  <si>
+    <t>Husam Alghamdi</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Idea selection, planning and overview of functionality, target audience and use case.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Feasibility study</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
+  </si>
+  <si>
+    <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
+  </si>
+  <si>
+    <t>Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
+  </si>
+  <si>
+    <t>Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
+  </si>
+  <si>
+    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
   </si>
   <si>
     <t xml:space="preserve">Updated the ERD, Created a MongoDB cluster/database which everyone has been added to, alongside found tutorials for how to get it working on various OS's. Worked on the evidence review. And have also made low-fi and hi-fi prototypes for the computer and mobile webpages, and a sequence diagram. </t>
@@ -88,65 +93,49 @@
     <t xml:space="preserve">Create mockup prototype for Purchase confirmation, checkout, credit card, About us and contact us. Created login sequence  diagram, use case diagram and updated activity diagram.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Week 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Proposed chosen architecture pattern to team members (layered). Writen in-depth architecture section of the evidence review. Design visual architecture model with relative components. More focus on implementation of home screen and displaying listings. Help other team members learning and understanding of React.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -155,7 +144,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -168,7 +156,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -176,81 +164,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.5"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -268,7 +523,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -288,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -308,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -328,7 +583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -348,17 +603,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -368,7 +625,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -378,7 +635,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -388,7 +645,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -398,7 +655,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -408,7 +665,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -418,7 +675,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -428,7 +685,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -439,12 +696,7 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AEB137-8528-409C-836B-82BC94B49567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F17CB71-E1DE-4171-BB2E-8F685FAA09D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <t>Week 13</t>
   </si>
   <si>
-    <t>Proposed chosen architecture pattern to team members (layered). Writen in-depth architecture section of the evidence review. Design visual architecture model with relative components. More focus on implementation of home screen and displaying listings. Help other team members learning and understanding of React.</t>
+    <t>Proposed chosen architecture pattern to team members (layered). Documented in-depth architecture section of the evidence review. Designed visual architecture model with relative components. Started focus on implementation of home screen and displaying listings. Helped other team members learning and understanding of React and set up the groundwork of the project (screen renders in App.js) to start development.</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -603,7 +603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F17CB71-E1DE-4171-BB2E-8F685FAA09D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -121,12 +115,15 @@
   </si>
   <si>
     <t>Proposed chosen architecture pattern to team members (layered). Documented in-depth architecture section of the evidence review. Designed visual architecture model with relative components. Started focus on implementation of home screen and displaying listings. Helped other team members learning and understanding of React and set up the groundwork of the project (screen renders in App.js) to start development.</t>
+  </si>
+  <si>
+    <t>Set up the node js server file to pull data from the backend and serve it to the frontend. Set up a communal email and MongoDB account for the team to use. Provided instructions for team to install npm backend modules (these are in instructions.txt in the gitbucket repo). Working with Cedric to pull data from the sign up form to the backend.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -236,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,30 +479,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +520,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -543,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -563,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -583,7 +580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="103.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -603,7 +600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="148.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -611,11 +608,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -625,7 +624,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -635,7 +634,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -645,7 +644,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -655,7 +654,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -665,7 +664,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -675,7 +674,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -685,7 +684,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550EB44-3F39-CC42-81A1-FD23BD926143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -118,12 +124,15 @@
   </si>
   <si>
     <t>Set up the node js server file to pull data from the backend and serve it to the frontend. Set up a communal email and MongoDB account for the team to use. Provided instructions for team to install npm backend modules (these are in instructions.txt in the gitbucket repo). Working with Cedric to pull data from the sign up form to the backend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a form for the create account page which has since been put into a text file for now as we work on simplifying it until we know it works correctly. Also have set up the majority of the back end database as well as the middleware to connect these two. Just working out the final bugs with Leon before connecting it all together. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -479,30 +488,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +529,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -540,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -560,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -580,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="103.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -600,21 +609,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="148.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="149" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -624,7 +635,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -634,7 +645,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -644,7 +655,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -654,7 +665,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -664,7 +675,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -674,7 +685,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -684,7 +695,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C550EB44-3F39-CC42-81A1-FD23BD926143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7317AFB-3660-4E12-A7C9-DF0CDF14B08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">Created a form for the create account page which has since been put into a text file for now as we work on simplifying it until we know it works correctly. Also have set up the majority of the back end database as well as the middleware to connect these two. Just working out the final bugs with Leon before connecting it all together. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on the Evidence review, watched tutorials to learn about react.js, Node js and MongoDB. Downloded dependency for as instructions to VSC and started styling front-end pages </t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -294,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -498,20 +501,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +532,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -549,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -569,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -589,7 +592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -609,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="149" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -623,9 +626,11 @@
         <v>32</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -635,7 +640,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -645,7 +650,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -655,7 +660,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -665,7 +670,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -675,7 +680,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -685,7 +690,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -695,7 +700,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7317AFB-3660-4E12-A7C9-DF0CDF14B08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F3F657-85DC-421F-ABDA-7EEBA079A192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -123,13 +123,7 @@
     <t>Proposed chosen architecture pattern to team members (layered). Documented in-depth architecture section of the evidence review. Designed visual architecture model with relative components. Started focus on implementation of home screen and displaying listings. Helped other team members learning and understanding of React and set up the groundwork of the project (screen renders in App.js) to start development.</t>
   </si>
   <si>
-    <t>Set up the node js server file to pull data from the backend and serve it to the frontend. Set up a communal email and MongoDB account for the team to use. Provided instructions for team to install npm backend modules (these are in instructions.txt in the gitbucket repo). Working with Cedric to pull data from the sign up form to the backend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created a form for the create account page which has since been put into a text file for now as we work on simplifying it until we know it works correctly. Also have set up the majority of the back end database as well as the middleware to connect these two. Just working out the final bugs with Leon before connecting it all together. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on the Evidence review, watched tutorials to learn about react.js, Node js and MongoDB. Downloded dependency for as instructions to VSC and started styling front-end pages </t>
+    <t xml:space="preserve">Started front-end work regarding the main page through following tutorials suggested by the team. Helped explain the models within the feasibility study and did some proof reading/editing. Finished the heuristics document for user experience. Getting used to the new tools, so far so good. </t>
   </si>
 </sst>
 </file>
@@ -501,20 +495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +526,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -552,7 +546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -592,7 +586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -612,25 +606,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -640,7 +630,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -650,7 +640,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -660,7 +650,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -670,7 +660,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -680,7 +670,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -690,7 +680,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -700,7 +690,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FEBDA1-B6FD-4B91-8EA8-16D6D3C16826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,60 +25,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
-  <si>
-    <t xml:space="preserve">Hugo Baird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedric Stephani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leon Hoogenraad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vainui Moresi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husam Alghamdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idea selection, planning and overview of functionality, target audience and use case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feasibility study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+  <si>
+    <t>Hugo Baird</t>
+  </si>
+  <si>
+    <t>Cedric Stephani</t>
+  </si>
+  <si>
+    <t>Leon Hoogenraad</t>
+  </si>
+  <si>
+    <t>Vainui Moresi</t>
+  </si>
+  <si>
+    <t>Husam Alghamdi</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Idea selection, planning and overview of functionality, target audience and use case.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Feasibility study</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Gave instructions on how to download Microsoft Visual Code, ReactJS, Node.JS and MongoDB. Create starting React project base structure and push to Git. Ensure all group members can pull the project and run the react App in their browser. Assist with scheduling and delegating of stories.</t>
+  </si>
+  <si>
+    <t>Downloaded the systems programs like Visual Code, ReactJS/NodeJS, and MongoDB. Worked on user stories and project scheduling as well as started working on a rough database model which reflects systems/user stories needs.</t>
+  </si>
+  <si>
+    <t>Downloaded and Installed development tools onto both my desktop and laptop. Participated in the planning poker session to estimate time cost of each user story.</t>
+  </si>
+  <si>
+    <t>Downloaded our chosen software for the project: ReactJS, NodeJS, MongoDB and Visual Studio Code. Have watched a few tutorials to start learning these softwares.</t>
+  </si>
+  <si>
+    <t>Downloaded softwares to work in project in accordance with team plan, which are: ReactJS,NodeJS, MongoDB and Visual Studio Code. Contributed to User-Stories and Created project page on taiga. Added Activity digram for Agora and contribute to playing planning poker with the rest of the team.</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Created Hi-FI prototypes for Home and View Listing screens. Found suitable tutorial videos for the group to watch to learn React and assist with project development. Start development of the Home screen and set up appropriate project directory structure.</t>
   </si>
   <si>
     <t xml:space="preserve">Updated the ERD, Created a MongoDB cluster/database which everyone has been added to, alongside found tutorials for how to get it working on various OS's. Worked on the evidence review. And have also made low-fi and hi-fi prototypes for the computer and mobile webpages, and a sequence diagram. </t>
@@ -88,16 +93,16 @@
     <t xml:space="preserve">Create mockup prototype for Purchase confirmation, checkout, credit card, About us and contact us. Created login sequence  diagram, use case diagram and updated activity diagram.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Week 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposed chosen architecture pattern to team members (layered). Documented in-depth architecture section of the evidence review. Designed visual architecture model with relative components. Started focus on implementation of home screen and displaying listings. Helped other team members learning and understanding of React and set up the groundwork of the project (screen renders in App.js) to start development.</t>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Proposed chosen architecture pattern to team members (layered). Documented in-depth architecture section of the evidence review. Designed visual architecture model with relative components. Started focus on implementation of home screen and displaying listings. Helped other team members learning and understanding of React and set up the groundwork of the project (screen renders in App.js) to start development.</t>
   </si>
   <si>
     <t xml:space="preserve">Created a form for the create account page which has since been put into a text file for now as we work on simplifying it until we know it works correctly. Also have set up the majority of the back end database as well as the middleware to connect these two. Just working out the final bugs with Leon before connecting it all together. </t>
   </si>
   <si>
-    <t xml:space="preserve">Set up the node js server file to pull data from the backend and serve it to the frontend. Set up a communal email and MongoDB account for the team to use. Provided instructions for team to install npm backend modules (these are in instructions.txt in the gitbucket repo). Working with Cedric to pull data from the sign up form to the backend.</t>
+    <t>Set up the node js server file to pull data from the backend and serve it to the frontend. Set up a communal email and MongoDB account for the team to use. Provided instructions for team to install npm backend modules (these are in instructions.txt in the gitbucket repo). Working with Cedric to pull data from the sign up form to the backend.</t>
   </si>
   <si>
     <t xml:space="preserve">Started front-end work regarding the main page through following tutorials suggested by the team. Helped explain the models within the feasibility study and did some proof reading/editing. Finished the heuristics document for user experience. Getting used to the new tools, so far so good. </t>
@@ -106,62 +111,46 @@
     <t xml:space="preserve">Worked on the Evidence review, watched tutorials to learn about react.js, Node js and MongoDB. Downloded dependency for as instructions to VSC and started styling front-end pages </t>
   </si>
   <si>
-    <t xml:space="preserve">Week 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 13</t>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Working on fetching the listings from the server and mongoDB. Assisted with styling of listings and home page. Helped other team members with issues related to sign up/sign in and server operations. Start planning implementation of create listing form. Create a Heroku account using the Agora email for future deployment.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -170,7 +159,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -183,7 +171,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -191,81 +179,348 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="36.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -283,7 +538,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -303,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -323,7 +578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="99" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -343,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="104.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -363,7 +618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="149.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -383,17 +638,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -403,7 +660,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -413,7 +670,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -423,7 +680,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -433,7 +690,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -443,7 +700,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -453,7 +710,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -464,12 +721,7 @@
       <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FEBDA1-B6FD-4B91-8EA8-16D6D3C16826}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9895A27-ED95-4D4E-9D24-0E54E26C0DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Week 13</t>
   </si>
   <si>
-    <t>Working on fetching the listings from the server and mongoDB. Assisted with styling of listings and home page. Helped other team members with issues related to sign up/sign in and server operations. Start planning implementation of create listing form. Create a Heroku account using the Agora email for future deployment.</t>
+    <t>Successfully fetched the listing data from the server and mongoDB. Completed styling of listings and the home page (header navigation bar, containers). Helped other team members with issues related to sign up/sign in and server operations. Started planning implementation of the create listing form. Created a Heroku account using the Agora email for future deployment.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="107.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugon\Desktop\Projects\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9895A27-ED95-4D4E-9D24-0E54E26C0DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3B470-CB04-4A3B-A177-A8A2591169AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Successfully fetched the listing data from the server and mongoDB. Completed styling of listings and the home page (header navigation bar, containers). Helped other team members with issues related to sign up/sign in and server operations. Started planning implementation of the create listing form. Created a Heroku account using the Agora email for future deployment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designed a logo for the student marketplace with couple of color combos and had the team to vote for one. Styled some of frontend pages (about us, sign in, contact us) and tested them locally to ensure they are proply working before integrate them to react.js app. </t>
   </si>
 </sst>
 </file>
@@ -507,20 +510,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +541,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -558,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -578,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -618,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -638,7 +641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="124.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -648,9 +651,11 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -660,7 +665,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -670,7 +675,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -680,7 +685,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -690,7 +695,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -700,7 +705,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A3B470-CB04-4A3B-A177-A8A2591169AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D7CE7-A967-F943-A8AA-CF5EE25BD5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t xml:space="preserve">designed a logo for the student marketplace with couple of color combos and had the team to vote for one. Styled some of frontend pages (about us, sign in, contact us) and tested them locally to ensure they are proply working before integrate them to react.js app. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped implement the back end side of the sign in and sign up pages as well as did some more editing to the front side of the features too. Ran into some issues so it took longer than me and Leon had initially thought it would. </t>
   </si>
 </sst>
 </file>
@@ -510,20 +513,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="6" width="36.6640625" customWidth="1"/>
+    <col min="7" max="1025" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +544,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -561,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -601,7 +604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -621,7 +624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="149.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="149" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -641,21 +644,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="124.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="124.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -665,7 +670,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -675,7 +680,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -685,7 +690,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -695,7 +700,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -705,7 +710,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -715,7 +720,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedricstephani/Documents/INFO301/agora_student_marketplace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4D7CE7-A967-F943-A8AA-CF5EE25BD5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EFD33-823C-437C-AD06-82D201A2206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t xml:space="preserve">Helped implement the back end side of the sign in and sign up pages as well as did some more editing to the front side of the features too. Ran into some issues so it took longer than me and Leon had initially thought it would. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received help from Al on direction for styling and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received help from Al on direction for styling and page creations (to make profile page and create listing page). Finally troubleshooted annoying local issues and now am working fine. Started on profile page styling within react.js app. </t>
   </si>
 </sst>
 </file>
@@ -513,20 +519,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" customWidth="1"/>
     <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.5" customWidth="1"/>
+    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +550,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -584,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -604,7 +610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="103.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -624,7 +630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="149" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -644,7 +650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="124.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -655,12 +661,14 @@
         <v>38</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -670,7 +678,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -680,7 +688,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -690,7 +698,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -700,7 +708,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -710,7 +718,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -720,7 +728,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\agora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031EFD33-823C-437C-AD06-82D201A2206C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE268577-4F95-44CF-AF58-6E57B6FD7290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -144,10 +144,10 @@
     <t xml:space="preserve">Helped implement the back end side of the sign in and sign up pages as well as did some more editing to the front side of the features too. Ran into some issues so it took longer than me and Leon had initially thought it would. </t>
   </si>
   <si>
-    <t xml:space="preserve">Received help from Al on direction for styling and </t>
-  </si>
-  <si>
     <t xml:space="preserve">Received help from Al on direction for styling and page creations (to make profile page and create listing page). Finally troubleshooted annoying local issues and now am working fine. Started on profile page styling within react.js app. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started work on a responsive nav-bar. Ran into issues again so have repulled repo and created a separate branch for the navbar. Adding css styling to navbar elements and have begun to implement functionality for when a user clicks on the menu. </t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>37</v>
@@ -675,7 +675,9 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Agora Team Activity Log.xlsx
+++ b/Agora Team Activity Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zedri\source\repos\agora_student_marketplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\301\agora_student_marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE268577-4F95-44CF-AF58-6E57B6FD7290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D2DE75-41E3-49C8-B80F-E82309FAA0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Hugo Baird</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">Started work on a responsive nav-bar. Ran into issues again so have repulled repo and created a separate branch for the navbar. Adding css styling to navbar elements and have begun to implement functionality for when a user clicks on the menu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kept working on front end pages, and style them to profisional standard. Planning my roles for coming spirnts and kept on searching for tutorials for working with react.js </t>
   </si>
 </sst>
 </file>
@@ -520,19 +523,19 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="6" width="36.6640625" customWidth="1"/>
-    <col min="7" max="1025" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +553,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -570,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -590,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -610,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="103.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="103.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -630,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="148.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -650,7 +653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="124.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -668,7 +671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -678,9 +681,11 @@
       <c r="E8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -690,7 +695,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -700,7 +705,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -720,7 +725,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -730,7 +735,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
